--- a/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.03435385795062</v>
+        <v>-1.094010295313024</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.392495011050017</v>
+        <v>-1.597888345469819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.177300477264897</v>
+        <v>-2.983686161568813</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2773252236414986</v>
+        <v>-0.3038790751091886</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5955780233505129</v>
+        <v>-0.6247231788967047</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7094933422665093</v>
+        <v>-0.6887590962249626</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.33806678446935</v>
+        <v>3.36980554453667</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.667847723744939</v>
+        <v>1.593468859050891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.066120506347934</v>
+        <v>0.9911876070576084</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.609160470844039</v>
+        <v>1.781063175527565</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.779773476091013</v>
+        <v>1.45227889541116</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4977659097785301</v>
+        <v>0.5728695419369173</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.986785532345035</v>
+        <v>-0.6639567617042077</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01046139996827833</v>
+        <v>0.101275449670956</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.147050394919303</v>
+        <v>-1.006491063260376</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.334279431441055</v>
+        <v>-0.2447611999071267</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07676311382620161</v>
+        <v>0.01569424154262141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3537998074559822</v>
+        <v>-0.302456928930662</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.466350281683918</v>
+        <v>2.864219101900868</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.985060401991813</v>
+        <v>3.078377631995615</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.140227657832203</v>
+        <v>2.382016435579416</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.563961652337315</v>
+        <v>1.845459594077612</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.245906263915241</v>
+        <v>3.350562832148507</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.145594200963303</v>
+        <v>1.265987043498597</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.084881497634901</v>
+        <v>-2.064029438806354</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4222518230945351</v>
+        <v>-0.3950351638714068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.393146875916918</v>
+        <v>-3.439987185458847</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5886099466303825</v>
+        <v>-0.5524548749004399</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3780835537559435</v>
+        <v>-0.2673539941365792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8416809696864801</v>
+        <v>-0.8288085344219451</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.788904179706016</v>
+        <v>1.842580626672784</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.806874440562626</v>
+        <v>2.970216966687645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02359228796910275</v>
+        <v>0.09580699279084272</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.155405975843359</v>
+        <v>1.11410878117046</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.695694209024293</v>
+        <v>3.907578650694724</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2105366886478404</v>
+        <v>0.2195098737448503</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.546232113505994</v>
+        <v>-1.734780797878596</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4636674711294429</v>
+        <v>-0.4174113474397187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.187512042749899</v>
+        <v>-1.201262648370139</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4779405289851896</v>
+        <v>-0.4923821840088718</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.186645213125225</v>
+        <v>-0.1916058657344589</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3566781277758683</v>
+        <v>-0.3635138582662588</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.767421317634915</v>
+        <v>1.754651006893049</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.100092428048279</v>
+        <v>3.090551556508177</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.364632981904628</v>
+        <v>2.169741625365367</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9850760061566046</v>
+        <v>0.9635378804828687</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.073767548374938</v>
+        <v>2.085481377900243</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.217068542210482</v>
+        <v>1.054144947194493</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3849438721433618</v>
+        <v>-0.4273836560431329</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2806001856363817</v>
+        <v>0.3124989760362852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.019550867626841</v>
+        <v>-1.006099544300977</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1289162073795352</v>
+        <v>-0.1433943381155079</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1122660062569284</v>
+        <v>0.1346080271161089</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3143184505990737</v>
+        <v>-0.3108869854138279</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.48421089501315</v>
+        <v>1.447621255241235</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.947569909347787</v>
+        <v>1.91796872150387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7227605885128596</v>
+        <v>0.7430757128457233</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.7200918368290076</v>
+        <v>0.6670432403385933</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.468948237204416</v>
+        <v>1.486176940064896</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3068883584756683</v>
+        <v>0.3146968637884939</v>
       </c>
     </row>
     <row r="19">
